--- a/eg1 adavanced.xlsx
+++ b/eg1 adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060243DA-C428-E94C-A5CF-B1D10A4EF33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E23000-5051-C34E-A6B4-FD782CECD9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,9 +153,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" ref="A28:M32" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-27)*4,0,4,1))</f>
+        <f t="shared" ref="A28:A31" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-27)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="B28" s="9">
@@ -1696,55 +1696,55 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>7.1235152773876107E-3</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>7.0908442065317845E-3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>58.75</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>8.0150671005249006</v>
       </c>
-      <c r="G30" s="6" t="e">
+      <c r="G30" s="7" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>9.7557201236299296</v>
       </c>
-      <c r="I30" s="6" t="e">
+      <c r="I30" s="7" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>6.9822730168608977</v>
       </c>
-      <c r="K30" s="6" t="e">
+      <c r="K30" s="7" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.4388422338016174</v>
       </c>
-      <c r="M30" s="6" t="e">
+      <c r="M30" s="7" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1855,6 +1855,12 @@
       <c r="M32" s="6" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="9">
+        <f ca="1">MIN(C27:C32)</f>
+        <v>7.0908442065317845E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1865,9 +1871,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:M29"/>
     </sheetView>
   </sheetViews>
@@ -3121,55 +3127,55 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>7.0832125233248455E-3</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>7.0098088323534927E-3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>76.25</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>16.030134201049801</v>
       </c>
-      <c r="G31" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="G31" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>17.509938044629525</v>
       </c>
-      <c r="I31" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>11.729536304052626</v>
       </c>
-      <c r="K31" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="K31" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>9.3502520081546585</v>
       </c>
-      <c r="M31" s="6" t="e">
+      <c r="M31" s="7" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3226,6 +3232,12 @@
       <c r="M32" s="6" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="9">
+        <f ca="1">MIN(C27:C32)</f>
+        <v>7.0098088323534927E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3235,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4596,6 +4608,12 @@
       <c r="M32" s="6" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="9">
+        <f ca="1">MIN(C27:C32)</f>
+        <v>6.9671547129512394E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5973,433 +5991,433 @@
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A35:A42" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
       <c r="B35" s="11">
-        <f t="shared" ref="B35:M42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="B35:M42" ca="1" si="1">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>7.2448755443551846E-3</v>
       </c>
       <c r="C35" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.187035253043577E-3</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>96.25</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30.337723255157428</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.3969376329842262</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.370526435434424</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10.126425754002927</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20.578242454387102</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.1553661932995531</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15.996092140658423</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.6868486828285425</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2402143367922799E-3</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.1886290692070353E-3</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>98.75</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>29.636587619781427</v>
       </c>
       <c r="G36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B37" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2558131985405953E-3</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.1959295310080025E-3</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>101.25</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>27.604599475860525</v>
       </c>
       <c r="G37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B38" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2538787907762223E-3</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2017070760534299E-3</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>103.75</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25.570649623870803</v>
       </c>
       <c r="G38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1E-4</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2755244030478427E-3</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.207872814181792E-3</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>106.25</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.7788982391357</v>
       </c>
       <c r="G39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="B40" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.3679907190454877E-3</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.3069674247737051E-3</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>108.75</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13.705420494079524</v>
       </c>
       <c r="G40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.01</v>
       </c>
       <c r="B41" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.9807669067993078E-3</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.9187246638924812E-3</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>111.25</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5595898628234828</v>
       </c>
       <c r="G41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
       </c>
       <c r="B42" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.9111126818399207</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.8345109020233394</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>113.75</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.5242187976837123</v>
       </c>
       <c r="G42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8232,7 +8250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -10048,7 +10066,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:M41"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11472,7 +11490,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:M43" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:M42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36" s="9">

--- a/eg1 adavanced.xlsx
+++ b/eg1 adavanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E23000-5051-C34E-A6B4-FD782CECD9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB27A79-1EA5-B74F-812F-72A9438D35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="52500" yWindow="4220" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -8250,7 +8250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/eg1 adavanced.xlsx
+++ b/eg1 adavanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB53F59-5D62-5C4F-9A55-F6CC5B649780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4878755-41A7-EC42-AB90-6EE28DCB85E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -104,9 +104,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +167,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3654,13 +3658,14 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J6" sqref="J6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.83203125" style="9"/>
-    <col min="5" max="13" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="15" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -3679,34 +3684,34 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3726,34 +3731,34 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="15">
         <v>1.0052530765533401</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3773,34 +3778,34 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>1.0052530765533401</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="G3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3820,34 +3825,34 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>1.0052530765533401</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="G4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3867,34 +3872,34 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>1.0052530765533401</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3914,34 +3919,34 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="17">
         <v>2.0105061531066801</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="17">
         <v>0.640144990046009</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="17">
         <v>0.50265579881425104</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="17">
         <v>0.40627622604370101</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="M6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="17">
         <v>0.57693266868591297</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3961,34 +3966,34 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="17">
         <v>2.0105061531066801</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17">
         <v>0.63772967572925898</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="17">
         <v>0.506521298766619</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="17">
         <v>0.44873714447021401</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="17">
         <v>0.57738018035888605</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4008,34 +4013,34 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="17">
         <v>2.0105061531066801</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17">
         <v>0.63860529776333197</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="17">
         <v>0.50461928474951401</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="K8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="17">
         <v>0.40481495857238697</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="17">
         <v>0.57509708404541005</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4055,34 +4060,34 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="17">
         <v>2.0105061531066801</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17">
         <v>0.63818749900577898</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="17">
         <v>0.50563262331534098</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="K9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="17">
         <v>0.40392494201660101</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="17">
         <v>0.58724403381347601</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4102,34 +4107,34 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="15">
         <v>4.02101230621337</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4149,34 +4154,34 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>4.02101230621337</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="G11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4196,34 +4201,34 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>4.02101230621337</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="G12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4243,34 +4248,34 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <v>4.02101230621337</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="G13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4290,34 +4295,34 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="15">
         <v>8.0420246124267507</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="G14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4337,34 +4342,34 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>8.0420246124267507</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="G15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4384,34 +4389,34 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>8.0420246124267507</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="G16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4431,34 +4436,34 @@
       <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="15">
         <v>8.0420246124267507</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="G17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4478,34 +4483,34 @@
       <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <v>16.084049224853501</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="G18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4525,34 +4530,34 @@
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>16.084049224853501</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="G19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4572,34 +4577,34 @@
       <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>16.084049224853501</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="G20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4619,34 +4624,34 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>16.084049224853501</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="G21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4666,34 +4671,34 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <v>32.168098449707003</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="G22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4713,34 +4718,34 @@
       <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <v>32.168098449707003</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="G23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4760,34 +4765,34 @@
       <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <v>32.168098449707003</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="G24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4807,34 +4812,34 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <v>32.168098449707003</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="G25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4859,43 +4864,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>1.0052530765533401</v>
       </c>
-      <c r="G27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" t="e">
+      <c r="G27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4921,43 +4926,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>2.0105061531066801</v>
       </c>
-      <c r="G28" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0.63866686563609476</v>
       </c>
-      <c r="I28" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0.50485725141143123</v>
       </c>
-      <c r="K28" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0.41593831777572576</v>
       </c>
-      <c r="M28" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0.5791634917259213</v>
       </c>
-      <c r="O28" s="2" t="e">
+      <c r="O28" s="17" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4983,43 +4988,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>4.02101230621337</v>
       </c>
-      <c r="G29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="4" t="e">
+      <c r="G29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="15" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5045,43 +5050,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>8.0420246124267507</v>
       </c>
-      <c r="G30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" t="e">
+      <c r="G30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5107,43 +5112,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>16.084049224853501</v>
       </c>
-      <c r="G31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" t="e">
+      <c r="G31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5169,43 +5174,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>32.168098449707003</v>
       </c>
-      <c r="G32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" t="e">
+      <c r="G32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -9375,14 +9380,15 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="10.83203125" style="9"/>
-    <col min="5" max="13" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="15" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -9401,34 +9407,34 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9448,34 +9454,34 @@
       <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="17">
         <v>465.63363647460898</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="17">
         <v>22.630702463727701</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="17">
         <v>61.591543149106002</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="17">
         <v>3.2786018651173401</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="17">
         <v>50.1239532721914</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="17">
         <v>2.7686530892635801</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="17">
         <v>0.40947604179382302</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="17">
         <v>0.39684987068176197</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="17">
         <v>0.58831596374511697</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="17">
         <v>0.58572602272033603</v>
       </c>
     </row>
@@ -9495,34 +9501,34 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="17">
         <v>751.046142578125</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="17">
         <v>25.097082738143399</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="17">
         <v>99.164259229234602</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="17">
         <v>3.6068223555189398</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="17">
         <v>80.651437679050701</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="17">
         <v>3.0366990049731299</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="17">
         <v>0.40526294708251898</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="17">
         <v>0.39282417297363198</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="17">
         <v>0.58367609977722101</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="17">
         <v>0.56359314918518</v>
       </c>
     </row>
@@ -9542,34 +9548,34 @@
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="17">
         <v>365.07369995117102</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="17">
         <v>15.028309828479999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="17">
         <v>48.360267912431098</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="17">
         <v>2.28342572055963</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="17">
         <v>39.371963998957</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="17">
         <v>1.93051701119761</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="17">
         <v>0.40771198272705</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="17">
         <v>0.41142392158508301</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="17">
         <v>0.57997083663940396</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="17">
         <v>0.55881881713867099</v>
       </c>
     </row>
@@ -9589,34 +9595,34 @@
       <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="17">
         <v>185.60461425781199</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="17">
         <v>12.8965754115814</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="17">
         <v>24.740970946862401</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="17">
         <v>2.00723047853015</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="17">
         <v>20.1952589826011</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="17">
         <v>1.69310721426574</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="17">
         <v>0.40260386466979903</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="17">
         <v>0.389305830001831</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="17">
         <v>0.57867288589477495</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="17">
         <v>0.58805108070373502</v>
       </c>
     </row>
@@ -9636,34 +9642,34 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>155.46797180175699</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9683,34 +9689,34 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>305.47427368164</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9730,34 +9736,34 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>153.70364379882801</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="G8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9777,34 +9783,34 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <v>153.12123107910099</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="G9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9824,34 +9830,34 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="16">
         <v>23.762300491333001</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="G10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9871,34 +9877,34 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="16">
         <v>37.983264923095703</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="G11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9918,34 +9924,34 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="16">
         <v>27.510644912719702</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="G12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9965,34 +9971,34 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="16">
         <v>17.885915756225501</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="G13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10012,34 +10018,34 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="16">
         <v>7.0049247741699201</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="G14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10059,34 +10065,34 @@
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="16">
         <v>8.0060253143310494</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="G15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10106,34 +10112,34 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="16">
         <v>7.3228878974914497</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="G16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10153,34 +10159,34 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="16">
         <v>6.3247685432434002</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="G17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10200,34 +10206,34 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="16">
         <v>6.3360996246337802</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="G18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10247,34 +10253,34 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="16">
         <v>6.97255086898803</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="G19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10294,34 +10300,34 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="16">
         <v>6.0525751113891602</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="G20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10341,34 +10347,34 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="16">
         <v>6.0164246559143004</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="G21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10388,34 +10394,34 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="16">
         <v>6.6353816986083896</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="G22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10435,34 +10441,34 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="16">
         <v>6.4572563171386701</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="G23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10482,34 +10488,34 @@
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="16">
         <v>6.4887313842773402</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="G24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10529,34 +10535,34 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="16">
         <v>6.1942367553710902</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="G25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10576,34 +10582,34 @@
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="16">
         <v>6.5002584457397399</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="G26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10623,34 +10629,34 @@
       <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="16">
         <v>6.2601370811462402</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="G27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10670,34 +10676,34 @@
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="16">
         <v>6.3384532928466797</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="G28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10717,34 +10723,34 @@
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="16">
         <v>6.40972471237182</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="G29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10764,34 +10770,34 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="16">
         <v>4.9153981208801198</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="G30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10811,34 +10817,34 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="16">
         <v>4.9316592216491699</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="G31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10858,34 +10864,34 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="16">
         <v>3.6816301345825102</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="G32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10905,34 +10911,34 @@
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="16">
         <v>5.0331907272338796</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="G33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10957,43 +10963,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>441.83952331542923</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>18.913167610483125</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>58.464260309408523</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>2.7940201049315148</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>47.585653483200055</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>2.3572440799250152</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.40626370906829778</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.397600948810577</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.58265894651412919</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.57404726743698054</v>
       </c>
@@ -11019,43 +11025,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>191.94178009033149</v>
       </c>
-      <c r="G36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="5" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="5" t="e">
+      <c r="G36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="15" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -11081,43 +11087,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>26.785531520843477</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="1" t="e">
+      <c r="G37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11143,43 +11149,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>7.1646516323089546</v>
       </c>
-      <c r="G38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="1" t="e">
+      <c r="G38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11205,43 +11211,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>6.3444125652313179</v>
       </c>
-      <c r="G39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="1" t="e">
+      <c r="G39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11267,43 +11273,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>6.4439015388488725</v>
       </c>
-      <c r="G40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="1" t="e">
+      <c r="G40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11329,43 +11335,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>6.3771433830261195</v>
       </c>
-      <c r="G41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="1" t="e">
+      <c r="G41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11391,43 +11397,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>4.6404695510864205</v>
       </c>
-      <c r="G42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="1" t="e">
+      <c r="G42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -15597,14 +15603,15 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C29"/>
+      <selection activeCell="K26" sqref="K26:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="10.83203125" style="9"/>
-    <col min="5" max="13" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="15" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -15623,34 +15630,34 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15670,34 +15677,34 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="16">
         <v>50.693164825439403</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15717,34 +15724,34 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="16">
         <v>60.231422424316399</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="G3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15764,34 +15771,34 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="16">
         <v>81.885032653808594</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15811,34 +15818,34 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>57.078224182128899</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15858,34 +15865,34 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>50.676933288574197</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15905,34 +15912,34 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>60.302356719970703</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15952,34 +15959,34 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>81.906692504882798</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="G8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15999,34 +16006,34 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <v>57.025871276855398</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="G9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16046,34 +16053,34 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="15">
         <v>50.649700164794901</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16093,34 +16100,34 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>60.065357208251903</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="G11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16140,34 +16147,34 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>81.782196044921804</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="G12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16187,34 +16194,34 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <v>57.085475921630803</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="G13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16234,34 +16241,34 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="15">
         <v>50.678142547607401</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="G14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16281,34 +16288,34 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>60.306022644042898</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="G15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16328,34 +16335,34 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>81.788558959960895</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="G16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16375,34 +16382,34 @@
       <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="15">
         <v>56.658802032470703</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="G17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16422,34 +16429,34 @@
       <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <v>50.630687713622997</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="G18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16469,34 +16476,34 @@
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>60.321277618408203</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="G19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16516,34 +16523,34 @@
       <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>81.955207824707003</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="G20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16563,34 +16570,34 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>56.615222930908203</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="G21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16610,34 +16617,34 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <v>50.691688537597599</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="G22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16657,34 +16664,34 @@
       <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <v>60.005531311035099</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="G23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16704,34 +16711,34 @@
       <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <v>81.745491027832003</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="G24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16751,34 +16758,34 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <v>56.7362060546875</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="G25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16798,34 +16805,34 @@
       <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="17">
         <v>50.954193115234297</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="17">
         <v>11.5212305536673</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="17">
         <v>7.0110336610108401</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="17">
         <v>1.8226531849752301</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="17">
         <v>5.8198839466720598</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="17">
         <v>1.56830180066223</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="17">
         <v>0.445047616958618</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="17">
         <v>0.40771698951721103</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="17">
         <v>0.57256007194518999</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="17">
         <v>0.55886483192443803</v>
       </c>
     </row>
@@ -16845,34 +16852,34 @@
       <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="17">
         <v>60.166141510009702</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="17">
         <v>14.522299251444499</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="17">
         <v>8.2443533905882802</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="17">
         <v>2.23620651557462</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="17">
         <v>6.7823225970308396</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="17">
         <v>1.8669426880950399</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="17">
         <v>0.40770626068115201</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="17">
         <v>0.416078090667724</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="17">
         <v>0.58384394645690896</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="17">
         <v>0.60040783882141102</v>
       </c>
     </row>
@@ -16892,34 +16899,34 @@
       <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="17">
         <v>82.110809326171804</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="17">
         <v>18.213146722927501</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="17">
         <v>11.121320510460301</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="17">
         <v>2.7104040999708499</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="17">
         <v>9.1264835655630101</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="17">
         <v>2.2960705789759999</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="17">
         <v>0.40437006950378401</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="17">
         <v>0.38846611976623502</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="17">
         <v>0.576443672180175</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="17">
         <v>0.56270170211791903</v>
       </c>
     </row>
@@ -16939,34 +16946,34 @@
       <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="17">
         <v>56.961460113525298</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="17">
         <v>12.499582610944399</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="17">
         <v>7.8159589263207501</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="17">
         <v>1.9884060952334599</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="17">
         <v>6.4385726206261698</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="17">
         <v>1.6532864838308801</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="17">
         <v>0.409210205078125</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="17">
         <v>0.39696097373962402</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="17">
         <v>0.582256078720092</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="17">
         <v>0.55880403518676702</v>
       </c>
     </row>
@@ -16986,34 +16993,34 @@
       <c r="E30" s="7">
         <v>1</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="15">
         <v>49.949775695800703</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="G30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17033,34 +17040,34 @@
       <c r="E31" s="7">
         <v>1</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>59.146377563476499</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="G31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17080,34 +17087,34 @@
       <c r="E32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="15">
         <v>79.4217529296875</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="G32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17127,34 +17134,34 @@
       <c r="E33" s="7">
         <v>1</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <v>55.704475402832003</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="G33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17179,43 +17186,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>62.471961021423326</v>
       </c>
-      <c r="G35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="1" t="e">
+      <c r="G35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17241,43 +17248,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>62.477963447570772</v>
       </c>
-      <c r="G36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="1" t="e">
+      <c r="G36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="16" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -17303,43 +17310,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>62.395682334899853</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="1" t="e">
+      <c r="G37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17365,43 +17372,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>62.357881546020479</v>
       </c>
-      <c r="G38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="1" t="e">
+      <c r="G38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17427,43 +17434,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>62.3805990219116</v>
       </c>
-      <c r="G39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="1" t="e">
+      <c r="G39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17489,43 +17496,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>62.29472923278805</v>
       </c>
-      <c r="G40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="1" t="e">
+      <c r="G40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17551,43 +17558,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>62.548151016235273</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>14.189064784745925</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>8.5481666220950423</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>2.1894174739385401</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>7.04181568247302</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>1.8461503878910375</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.41658353805541976</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.40230554342269853</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.57877594232559149</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>0.57019460201263383</v>
       </c>
@@ -17613,43 +17620,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>61.055595397949176</v>
       </c>
-      <c r="G42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="1" t="e">
+      <c r="G42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="16" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
